--- a/API/Kanban/wwwroot/BoardReport.xlsx
+++ b/API/Kanban/wwwroot/BoardReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Board Name</t>
   </si>
@@ -24,6 +24,36 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>asdasdasd</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>asdasdas</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>Memos</t>
+  </si>
+  <si>
+    <t>ayy</t>
+  </si>
+  <si>
+    <t>ayyyy</t>
+  </si>
+  <si>
+    <t>Ayyyy</t>
+  </si>
+  <si>
+    <t>A very very very long name with long thing to remember memos</t>
   </si>
 </sst>
 </file>
@@ -46,7 +76,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +91,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8E9B90" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6C4A2" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7C6C77" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
@@ -93,6 +138,21 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,6 +193,90 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/API/Kanban/wwwroot/BoardReport.xlsx
+++ b/API/Kanban/wwwroot/BoardReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Board Name</t>
   </si>
@@ -26,34 +26,7 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>asdasdas</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
     <t>Memos</t>
-  </si>
-  <si>
-    <t>ayy</t>
-  </si>
-  <si>
-    <t>ayyyy</t>
-  </si>
-  <si>
-    <t>Ayyyy</t>
-  </si>
-  <si>
-    <t>A very very very long name with long thing to remember memos</t>
   </si>
 </sst>
 </file>
@@ -76,7 +49,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,16 +69,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6C4A2" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7C6C77" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
@@ -139,19 +102,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -164,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -193,88 +144,9 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="4">
+      <c r="B4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/API/Kanban/wwwroot/BoardReport.xlsx
+++ b/API/Kanban/wwwroot/BoardReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Board Name</t>
   </si>
@@ -26,7 +26,64 @@
     <t>Finished</t>
   </si>
   <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Some thing todo</t>
+  </si>
+  <si>
+    <t>Another thing todo but it's importance</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>A thing on work</t>
+  </si>
+  <si>
+    <t>Step 1 on this task</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Last Step</t>
+  </si>
+  <si>
+    <t>May be this is Last one</t>
+  </si>
+  <si>
+    <t>Another thing on work</t>
+  </si>
+  <si>
+    <t>This is something im working on and it's need to b</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Another one</t>
+  </si>
+  <si>
+    <t>Some thing finished</t>
+  </si>
+  <si>
     <t>Memos</t>
+  </si>
+  <si>
+    <t>Some Memos to remember</t>
+  </si>
+  <si>
+    <t>Another memo to remembers</t>
   </si>
 </sst>
 </file>
@@ -49,7 +106,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +126,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6C4A2" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C0A4" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7C6C77" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
@@ -102,7 +174,22 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -115,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -144,9 +231,149 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
     <row r="4">
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
